--- a/experimental-data/tecan-data/plasmid/18September2024/cfu_18September2024.xlsx
+++ b/experimental-data/tecan-data/plasmid/18September2024/cfu_18September2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Phage-Community-Metabolism/experimental-data/tecan-data/plasmid/16September2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Phage-Community-Metabolism/experimental-data/tecan-data/plasmid/18September2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0EE092-FD5C-6340-A6CC-E5D154A97F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDFDE00-01AE-7C49-ACE9-E1835FC067B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8200" yWindow="820" windowWidth="27640" windowHeight="15380" xr2:uid="{335C992F-137F-A04A-885F-73C5F05FBCA5}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FFA6C9-CC24-8045-A82F-B4070267AF8A}">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,104 +577,207 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" si="0">2/1000</f>
         <v>2E-3</v>
       </c>
-      <c r="G2" t="e">
+      <c r="G2">
         <f t="shared" ref="G2:G8" si="1">AVERAGE(B2,C2,D2)/(E2*F2)</f>
-        <v>#DIV/0!</v>
+        <v>133333.33333333331</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
       <c r="F3">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G3" t="e">
+      <c r="G3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>83333.333333333328</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>10^-1</f>
+        <v>0.1</v>
+      </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G4" t="e">
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G6" t="e">
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>49999.999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>10^-2</f>
+        <v>0.01</v>
+      </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G7" t="e">
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>166666.66666666666</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f>10^-3</f>
+        <v>1E-3</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G8" t="e">
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2333333.3333333335</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="G9" t="e">
-        <f t="shared" ref="G9:G72" si="2">AVERAGE(B9,C9,D9)/(E9*F9)</f>
-        <v>#DIV/0!</v>
+      <c r="G9">
+        <f t="shared" ref="G9:G40" si="2">AVERAGE(B9,C9,D9)/(E9*F9)</f>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
         <v>41</v>
@@ -684,13 +787,25 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
-        <f t="shared" ref="F10:F100" si="3">2/1000</f>
-        <v>2E-3</v>
-      </c>
-      <c r="G10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="F10:F40" si="3">2/1000</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
         <v>41</v>
@@ -700,13 +815,25 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>41</v>
@@ -716,13 +843,25 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
         <v>41</v>
@@ -732,13 +871,25 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>41</v>
@@ -748,13 +899,25 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>41</v>
@@ -764,13 +927,25 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="F15">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>41</v>
@@ -780,13 +955,25 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>41</v>
@@ -796,13 +983,25 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
         <v>41</v>
@@ -812,13 +1011,25 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -828,13 +1039,25 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="F19">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
         <v>41</v>
@@ -844,13 +1067,25 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>41</v>
@@ -860,13 +1095,25 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
         <v>41</v>
@@ -876,13 +1123,25 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="F22">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
         <v>41</v>
@@ -892,13 +1151,25 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
         <v>41</v>
@@ -908,13 +1179,25 @@
       <c r="A24" t="s">
         <v>19</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="F24">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
@@ -924,13 +1207,25 @@
       <c r="A25" t="s">
         <v>27</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
@@ -940,13 +1235,25 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
       <c r="F26">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G26" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
         <v>41</v>
@@ -956,13 +1263,25 @@
       <c r="A27" t="s">
         <v>36</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G27" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
@@ -972,13 +1291,25 @@
       <c r="A28" t="s">
         <v>37</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
         <v>41</v>
@@ -988,13 +1319,25 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="F29">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G29" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
         <v>41</v>
@@ -1004,13 +1347,25 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
       <c r="F30">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
         <v>41</v>
@@ -1020,13 +1375,25 @@
       <c r="A31" t="s">
         <v>10</v>
       </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
       <c r="F31">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H31" t="s">
         <v>41</v>
@@ -1036,13 +1403,25 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
       <c r="F32">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G32" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>41</v>
@@ -1052,13 +1431,25 @@
       <c r="A33" t="s">
         <v>42</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
       <c r="F33">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G33" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
         <v>41</v>
@@ -1068,13 +1459,25 @@
       <c r="A34" t="s">
         <v>43</v>
       </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
       <c r="F34">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G34" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
         <v>41</v>
@@ -1084,13 +1487,25 @@
       <c r="A35" t="s">
         <v>8</v>
       </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="F35">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G35" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H35" t="s">
         <v>41</v>
@@ -1100,13 +1515,25 @@
       <c r="A36" t="s">
         <v>9</v>
       </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="F36">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
         <v>41</v>
@@ -1116,13 +1543,25 @@
       <c r="A37" t="s">
         <v>44</v>
       </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
       <c r="F37">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G37" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
         <v>41</v>
@@ -1132,13 +1571,25 @@
       <c r="A38" t="s">
         <v>45</v>
       </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
       <c r="F38">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G38" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H38" t="s">
         <v>41</v>
@@ -1148,13 +1599,25 @@
       <c r="A39" t="s">
         <v>46</v>
       </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
       <c r="F39">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H39" t="s">
         <v>41</v>
@@ -1164,13 +1627,25 @@
       <c r="A40" t="s">
         <v>47</v>
       </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
       <c r="F40">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="G40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H40" t="s">
         <v>41</v>
